--- a/Tables_Figures/output/table06_SR_error_rate_anovas.xlsx
+++ b/Tables_Figures/output/table06_SR_error_rate_anovas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Effect</t>
   </si>
@@ -87,27 +87,6 @@
   </si>
   <si>
     <t>222.95 ( )</t>
-  </si>
-  <si>
-    <t>73.84 (***)</t>
-  </si>
-  <si>
-    <t>28.851 (*)</t>
-  </si>
-  <si>
-    <t>28.816 (*)</t>
-  </si>
-  <si>
-    <t>36.73 ( )</t>
-  </si>
-  <si>
-    <t>34.01 ( )</t>
-  </si>
-  <si>
-    <t>17.107 ( )</t>
-  </si>
-  <si>
-    <t>17.389 ( )</t>
   </si>
 </sst>
 </file>
@@ -190,10 +169,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>31.77</v>
+        <v>55.95</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -210,10 +189,10 @@
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>5.583</v>
+        <v>5.655</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -230,10 +209,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>6.156</v>
+        <v>6.76</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -250,10 +229,10 @@
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5318</v>
+        <v>1.4935</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -270,10 +249,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>2.2143</v>
+        <v>2.1421</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -290,10 +269,10 @@
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>0.015342</v>
+        <v>0.031462</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -310,10 +289,10 @@
         <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00318</v>
+        <v>0.08019</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Tables_Figures/output/table06_SR_error_rate_anovas.xlsx
+++ b/Tables_Figures/output/table06_SR_error_rate_anovas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Effect</t>
   </si>
@@ -68,25 +68,46 @@
     <t>Local Noun Number X Relatedness X Integration</t>
   </si>
   <si>
-    <t>332.8 (***)</t>
-  </si>
-  <si>
-    <t>188.78 (*)</t>
-  </si>
-  <si>
-    <t>181 (**)</t>
-  </si>
-  <si>
-    <t>237.53 ( )</t>
-  </si>
-  <si>
-    <t>208.65 ( )</t>
-  </si>
-  <si>
-    <t>230.12 ( )</t>
-  </si>
-  <si>
-    <t>222.95 ( )</t>
+    <t>0.14464 (*)</t>
+  </si>
+  <si>
+    <t>0.13601 ( )</t>
+  </si>
+  <si>
+    <t>0.15436 ( )</t>
+  </si>
+  <si>
+    <t>0.13507 (***)</t>
+  </si>
+  <si>
+    <t>0.16932 ( )</t>
+  </si>
+  <si>
+    <t>0.13725 (**)</t>
+  </si>
+  <si>
+    <t>0.15149 ( )</t>
+  </si>
+  <si>
+    <t>0.10269 (*)</t>
+  </si>
+  <si>
+    <t>0.4159 ( )</t>
+  </si>
+  <si>
+    <t>0.013634 ( )</t>
+  </si>
+  <si>
+    <t>0.25574 (**)</t>
+  </si>
+  <si>
+    <t>0.02759 ( )</t>
+  </si>
+  <si>
+    <t>0.04581 (.)</t>
+  </si>
+  <si>
+    <t>0.19012 ( )</t>
   </si>
 </sst>
 </file>
@@ -163,16 +184,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>55.95</v>
+        <v>6.532</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>55.95</v>
+        <v>4.788</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -183,16 +204,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>5.655</v>
+        <v>2.1913</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>5.655</v>
+        <v>0.4571</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -203,16 +224,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>6.76</v>
+        <v>0.028716</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>6.76</v>
+        <v>0.04039</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -223,16 +244,16 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>1.4935</v>
+        <v>38.38</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>1.4935</v>
+        <v>8.639</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -243,16 +264,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>2.1421</v>
+        <v>1.0063</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1421</v>
+        <v>1.6081</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -263,16 +284,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.031462</v>
+        <v>9.778</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>0.031462</v>
+        <v>4.063</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -283,16 +304,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08019</v>
+        <v>0.05735</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08019</v>
+        <v>0.1037</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Tables_Figures/output/table06_SR_error_rate_anovas.xlsx
+++ b/Tables_Figures/output/table06_SR_error_rate_anovas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Effect</t>
   </si>
@@ -68,46 +68,25 @@
     <t>Local Noun Number X Relatedness X Integration</t>
   </si>
   <si>
-    <t>0.14464 (*)</t>
-  </si>
-  <si>
-    <t>0.13601 ( )</t>
-  </si>
-  <si>
-    <t>0.15436 ( )</t>
-  </si>
-  <si>
-    <t>0.13507 (***)</t>
-  </si>
-  <si>
-    <t>0.16932 ( )</t>
-  </si>
-  <si>
-    <t>0.13725 (**)</t>
-  </si>
-  <si>
-    <t>0.15149 ( )</t>
-  </si>
-  <si>
-    <t>0.10269 (*)</t>
-  </si>
-  <si>
-    <t>0.4159 ( )</t>
-  </si>
-  <si>
-    <t>0.013634 ( )</t>
-  </si>
-  <si>
-    <t>0.25574 (**)</t>
-  </si>
-  <si>
-    <t>0.02759 ( )</t>
-  </si>
-  <si>
-    <t>0.04581 (.)</t>
-  </si>
-  <si>
-    <t>0.19012 ( )</t>
+    <t>332.8 (***)</t>
+  </si>
+  <si>
+    <t>188.78 (*)</t>
+  </si>
+  <si>
+    <t>181 (**)</t>
+  </si>
+  <si>
+    <t>237.53 ( )</t>
+  </si>
+  <si>
+    <t>208.65 ( )</t>
+  </si>
+  <si>
+    <t>230.12 ( )</t>
+  </si>
+  <si>
+    <t>222.95 ( )</t>
   </si>
 </sst>
 </file>
@@ -184,16 +163,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>6.532</v>
+        <v>55.95</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>4.788</v>
+        <v>55.95</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -204,16 +183,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>2.1913</v>
+        <v>5.655</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4571</v>
+        <v>5.655</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -224,16 +203,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>0.028716</v>
+        <v>6.76</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04039</v>
+        <v>6.76</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -244,16 +223,16 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>38.38</v>
+        <v>1.4935</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>8.639</v>
+        <v>1.4935</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -264,16 +243,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0063</v>
+        <v>2.1421</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>1.6081</v>
+        <v>2.1421</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -284,16 +263,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>9.778</v>
+        <v>0.031462</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>4.063</v>
+        <v>0.031462</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -304,16 +283,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05735</v>
+        <v>0.08019</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1037</v>
+        <v>0.08019</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Tables_Figures/output/table06_SR_error_rate_anovas.xlsx
+++ b/Tables_Figures/output/table06_SR_error_rate_anovas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Effect</t>
   </si>
@@ -87,6 +87,27 @@
   </si>
   <si>
     <t>222.95 ( )</t>
+  </si>
+  <si>
+    <t>73.84 (***)</t>
+  </si>
+  <si>
+    <t>28.851 (*)</t>
+  </si>
+  <si>
+    <t>28.816 (*)</t>
+  </si>
+  <si>
+    <t>36.73 ( )</t>
+  </si>
+  <si>
+    <t>34.01 ( )</t>
+  </si>
+  <si>
+    <t>17.107 ( )</t>
+  </si>
+  <si>
+    <t>17.389 ( )</t>
   </si>
 </sst>
 </file>
@@ -169,10 +190,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>55.95</v>
+        <v>31.77</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -189,10 +210,10 @@
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>5.655</v>
+        <v>5.583</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -209,10 +230,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>6.76</v>
+        <v>6.156</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -229,10 +250,10 @@
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>1.4935</v>
+        <v>1.5318</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -249,10 +270,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1421</v>
+        <v>2.2143</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -269,10 +290,10 @@
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>0.031462</v>
+        <v>0.015342</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -289,10 +310,10 @@
         <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08019</v>
+        <v>0.00318</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Tables_Figures/output/table06_SR_error_rate_anovas.xlsx
+++ b/Tables_Figures/output/table06_SR_error_rate_anovas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Effect</t>
   </si>
@@ -24,27 +24,6 @@
   </si>
   <si>
     <t>F2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>Local Noun Number</t>
@@ -159,20 +138,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -180,140 +158,119 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>55.95</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
-        <v>55.95</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" t="n">
-        <v>31.77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="n">
+        <v>5.655</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.655</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" t="n">
+        <v>5.583</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.583</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4" t="n">
+        <v>6.156</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="n">
+        <v>1.4935</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.4935</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5" t="n">
+        <v>1.5318</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.5318</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="n">
+        <v>2.1421</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.1421</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6" t="n">
+        <v>2.2143</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.2143</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="n">
+        <v>0.031462</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.031462</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7" t="n">
+        <v>0.015342</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.015342</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="n">
+        <v>0.08019</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.08019</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8" t="n">
+        <v>0.00318</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.00318</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
